--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bykQP3Pfz5bBAL/I3n7a0OmaJiO4Nq7blnC0pDt0FRs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SMDLBE+1LsnHon7DKdYIz4Uz6X+MwqPzdCYDdENow/E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Page ID</t>
   </si>
@@ -30,7 +30,49 @@
     <t>en</t>
   </si>
   <si>
+    <t>menu</t>
+  </si>
+  <si>
     <t>inicio</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>nosotros</t>
+  </si>
+  <si>
+    <t>Nosotros</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>contacto</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>reservar</t>
+  </si>
+  <si>
+    <t>Reservar</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>Blog</t>
   </si>
   <si>
     <t>caruselTitulo</t>
@@ -105,9 +147,6 @@
     <t>Our blog is your guide to exploring Cartagena, Islas del Rosario, and Barú. Discover their culture, landscapes, and the experiences that make these destinations unique.</t>
   </si>
   <si>
-    <t>nosotros</t>
-  </si>
-  <si>
     <t>sectionHeroTitulo</t>
   </si>
   <si>
@@ -153,9 +192,6 @@
     <t xml:space="preserve">At Anawana, every detail matters. Our high-end hospitality guarantees comfort and privacy in the best locations. </t>
   </si>
   <si>
-    <t>contacto</t>
-  </si>
-  <si>
     <t>Contáctanos para alquilar casas exclusivas en Cartagena</t>
   </si>
   <si>
@@ -169,9 +205,6 @@
   </si>
   <si>
     <t>Do you have any questions or want to make a reservation?</t>
-  </si>
-  <si>
-    <t>blog</t>
   </si>
   <si>
     <t>sectionBlogCaruselTwoSlidesTitulo</t>
@@ -671,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -698,16 +731,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -734,16 +767,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -770,16 +803,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -806,16 +839,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -842,16 +875,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -878,16 +911,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -914,16 +947,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -950,16 +983,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -985,17 +1018,17 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
+      <c r="A15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1021,17 +1054,17 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
+      <c r="A16" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1057,17 +1090,17 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>51</v>
+      <c r="A17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1093,17 +1126,17 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
+      <c r="A18" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1129,17 +1162,17 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
+      <c r="A19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1165,10 +1198,18 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1193,10 +1234,18 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1221,10 +1270,18 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1249,10 +1306,18 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1277,10 +1342,18 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -28632,6 +28705,146 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SMDLBE+1LsnHon7DKdYIz4Uz6X+MwqPzdCYDdENow/E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1HVcuPQfYkMt7D0wE/QCuRyzIkniRtASZVNc1CqvGWc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Page ID</t>
   </si>
@@ -66,13 +66,22 @@
     <t>Reservar</t>
   </si>
   <si>
-    <t>Reserve</t>
+    <t>Book now</t>
   </si>
   <si>
     <t>blog</t>
   </si>
   <si>
     <t>Blog</t>
+  </si>
+  <si>
+    <t>propiedades</t>
+  </si>
+  <si>
+    <t>Propiedades</t>
+  </si>
+  <si>
+    <t>Properties</t>
   </si>
   <si>
     <t>caruselTitulo</t>
@@ -283,11 +292,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -506,11 +513,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="38.38"/>
     <col customWidth="1" min="3" max="3" width="46.63"/>
     <col customWidth="1" min="4" max="4" width="71.75"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -667,7 +672,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2"/>
@@ -730,16 +735,16 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
@@ -1019,7 +1024,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -1093,13 +1098,13 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="2"/>
@@ -1129,13 +1134,13 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="2"/>
@@ -1165,13 +1170,13 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2"/>
@@ -1198,17 +1203,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
+      <c r="A20" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1234,16 +1239,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2"/>
@@ -1270,16 +1275,16 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
+      <c r="A22" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2"/>
@@ -1306,16 +1311,16 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="2"/>
@@ -1342,16 +1347,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="2"/>
@@ -1378,10 +1383,18 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -28845,6 +28858,34 @@
       <c r="Y1005" s="2"/>
       <c r="Z1005" s="2"/>
     </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -48,7 +48,7 @@
     <t>Nosotros</t>
   </si>
   <si>
-    <t>About</t>
+    <t>About us</t>
   </si>
   <si>
     <t>contacto</t>
@@ -60,13 +60,13 @@
     <t>Contact us</t>
   </si>
   <si>
-    <t>reservar</t>
+    <t>propiedades</t>
   </si>
   <si>
-    <t>Reservar</t>
+    <t>Propiedades</t>
   </si>
   <si>
-    <t>Book now</t>
+    <t>Properties</t>
   </si>
   <si>
     <t>blog</t>
@@ -75,13 +75,13 @@
     <t>Blog</t>
   </si>
   <si>
-    <t>propiedades</t>
+    <t>reservar</t>
   </si>
   <si>
-    <t>Propiedades</t>
+    <t>Reservar</t>
   </si>
   <si>
-    <t>Properties</t>
+    <t>Book now</t>
   </si>
   <si>
     <t>caruselTitulo</t>
@@ -600,7 +600,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
@@ -663,13 +663,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -735,13 +735,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
